--- a/nodes_source_analyses/energy/energy_chp_local_engine_network_gas.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_local_engine_network_gas.central_producer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5D0FC-EC9B-C047-BCB4-3FFD61668AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81AA288-E632-E64F-941D-5F7B43F8FC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="3620" windowWidth="24620" windowHeight="22820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
   <si>
     <t>Source</t>
   </si>
@@ -642,6 +642,9 @@
       </rPr>
       <t xml:space="preserve"> the button to update the node attributes on ETSource.</t>
     </r>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1792,6 +1795,7 @@
     <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1819,7 +1823,6 @@
     <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="281">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2875,8 +2878,8 @@
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2901,28 +2904,28 @@
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1">
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
@@ -3135,7 +3138,7 @@
       <c r="D17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="173">
+      <c r="E17" s="164">
         <f>E16*E11/E10</f>
         <v>2.1860465116279069</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="43">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32" t="s">
@@ -3340,7 +3343,7 @@
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="30" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="J27" s="119"/>
     </row>
